--- a/data/trans_dic/P20_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado la relación con sus convivientes</t>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>12,82%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 24,32</t>
+          <t>4,82; 37,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 32,82</t>
+          <t>8,76; 42,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,59</t>
+          <t>2,13; 9,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 13,89</t>
+          <t>4,67; 14,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,85</t>
+          <t>4,93; 21,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 20,27</t>
+          <t>8,19; 24,88</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>10,53%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,29</t>
+          <t>3,91; 9,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,52</t>
+          <t>6,72; 13,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,56</t>
+          <t>9,61; 17,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 15,34</t>
+          <t>7,92; 15,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,01</t>
+          <t>7,53; 12,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,37</t>
+          <t>8,42; 13,65</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>12,89%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 13,54</t>
+          <t>7,08; 16,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,06</t>
+          <t>7,17; 14,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,61; 18,82</t>
+          <t>12,93; 22,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,32</t>
+          <t>11,19; 19,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 15,53</t>
+          <t>11,36; 18,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,53</t>
+          <t>10,3; 16,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>10,84%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,81</t>
+          <t>7,68; 11,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,53</t>
+          <t>8,26; 13,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,23</t>
+          <t>8,5; 12,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,21</t>
+          <t>8,34; 13,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,84</t>
+          <t>8,44; 11,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 14,12</t>
+          <t>8,94; 12,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,58; 11,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 14,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,04; 13,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 13,49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 11,95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 13,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32067</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>61943</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12318</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>35377</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>44385</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97320</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10928; 85411</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>29713; 142648</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5577; 25841</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19628; 60687</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24062; 104752</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62192; 188855</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>40614</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>93347</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>93070</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>109859</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>133684</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>203206</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25457; 63361</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>62459; 124655</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>68731; 123930</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>79209; 156122</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>102845; 171241</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>162434; 263295</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>49436</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74727</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>92386</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>116729</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>141823</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>191457</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32256; 76234</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>51275; 106190</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>68725; 117802</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86069; 152661</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>112121; 181130</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>152935; 237735</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>200136</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>155432</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>218672</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>153861</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>418809</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>309293</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>162286; 252465</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>119919; 199008</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>177712; 267964</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>116880; 195279</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>354747; 490443</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>255007; 368771</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>322254</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>385449</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>416447</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>415826</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>738700</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>801276</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>261441; 388277</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>322961; 486084</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>361386; 479749</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>359637; 484303</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>661107; 842094</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>714604; 922084</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>